--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\Love Babbar 450 questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python coding\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F2FA1F-9F45-4C6C-A5EB-81A222C49541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A567A0BF-4B79-49FD-B166-500CAC8B9B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="2430" windowWidth="28800" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,18 +1854,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="C360" sqref="C360"/>
+    <sheetView tabSelected="1" topLeftCell="B356" workbookViewId="0">
+      <selection activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:3" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="19.5">
+    <row r="142" spans="1:3" ht="19.8">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>346</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\Love Babbar 450 questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F2FA1F-9F45-4C6C-A5EB-81A222C49541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59098A71-FEA4-46C1-A307-A98D41C7471E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="2430" windowWidth="28800" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="8100" yWindow="2775" windowWidth="28800" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="C360" sqref="C360"/>
+      <selection activeCell="D353" sqref="D353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5599,7 +5599,7 @@
         <v>345</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
@@ -5610,7 +5610,7 @@
         <v>346</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
@@ -5632,7 +5632,7 @@
         <v>348</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python coding\DS-450-python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A567A0BF-4B79-49FD-B166-500CAC8B9B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEBFA1A-E1DA-4CBF-B1A3-2EF9D4839AD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,18 +1854,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B356" workbookViewId="0">
-      <selection activeCell="C358" sqref="C358"/>
+    <sheetView tabSelected="1" topLeftCell="B368" workbookViewId="0">
+      <selection activeCell="C386" sqref="C386"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="19.8">
+    <row r="142" spans="1:3" ht="19.5">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>345</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
@@ -5632,7 +5632,7 @@
         <v>348</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
@@ -5643,7 +5643,7 @@
         <v>349</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
@@ -5709,7 +5709,7 @@
         <v>355</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">
@@ -5720,7 +5720,7 @@
         <v>356</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">
@@ -5808,7 +5808,7 @@
         <v>364</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="21">
@@ -5819,7 +5819,7 @@
         <v>365</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="21">
@@ -5841,7 +5841,7 @@
         <v>367</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="21">
@@ -5885,7 +5885,7 @@
         <v>371</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="21">
@@ -5896,7 +5896,7 @@
         <v>372</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="21">
@@ -5907,7 +5907,7 @@
         <v>373</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEBFA1A-E1DA-4CBF-B1A3-2EF9D4839AD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F68EF2-13D9-4F85-9A05-080D66EE84F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B368" workbookViewId="0">
-      <selection activeCell="C386" sqref="C386"/>
+    <sheetView tabSelected="1" topLeftCell="B374" workbookViewId="0">
+      <selection activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5665,7 +5665,7 @@
         <v>351</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
@@ -5775,7 +5775,7 @@
         <v>361</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="21">
@@ -5786,7 +5786,7 @@
         <v>362</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="21">
@@ -5797,7 +5797,7 @@
         <v>363</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F68EF2-13D9-4F85-9A05-080D66EE84F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CEB793-337C-406A-9A93-C8D602C1FD4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B374" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B167" workbookViewId="0">
       <selection activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
@@ -5731,7 +5731,7 @@
         <v>357</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="21">
@@ -5863,7 +5863,7 @@
         <v>369</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="21">
@@ -5874,7 +5874,7 @@
         <v>370</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CEB793-337C-406A-9A93-C8D602C1FD4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C303A9A2-C101-4775-A7AE-D44F1E567100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B167" workbookViewId="0">
-      <selection activeCell="C363" sqref="C363"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3510,7 +3510,7 @@
         <v>154</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
@@ -3521,7 +3521,7 @@
         <v>155</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21">
@@ -3543,7 +3543,7 @@
         <v>157</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="21">
@@ -3554,7 +3554,7 @@
         <v>158</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C303A9A2-C101-4775-A7AE-D44F1E567100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2856FEE8-F26A-4816-A9A5-133C1555CEFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="8100" yWindow="2775" windowWidth="28800" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3565,7 +3565,7 @@
         <v>159</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21">
@@ -3609,7 +3609,7 @@
         <v>163</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="21">
@@ -3631,7 +3631,7 @@
         <v>165</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python coding\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2856FEE8-F26A-4816-A9A5-133C1555CEFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D358F4-69E1-4612-BF16-5C945B315E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="2775" windowWidth="28800" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,18 +1854,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B354" sqref="B354"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:3" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="19.5">
+    <row r="142" spans="1:3" ht="19.8">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>153</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21">
@@ -3532,7 +3532,7 @@
         <v>156</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="21">
@@ -3576,7 +3576,7 @@
         <v>160</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21">
@@ -3587,7 +3587,7 @@
         <v>161</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="21">
@@ -3653,7 +3653,7 @@
         <v>167</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="21">
@@ -3664,7 +3664,7 @@
         <v>168</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="21">
@@ -3675,7 +3675,7 @@
         <v>169</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python coding\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D358F4-69E1-4612-BF16-5C945B315E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C084D3-C1F1-45C2-BB45-1F89E88F7336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B354" sqref="B354"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -3301,7 +3301,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
@@ -3433,7 +3433,7 @@
         <v>147</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
@@ -3642,7 +3642,7 @@
         <v>166</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python coding\DS-450-python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D358F4-69E1-4612-BF16-5C945B315E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63707F87-22DD-4A90-ACFA-4015842BEEE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="4710" yWindow="2565" windowWidth="28800" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1854,18 +1854,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B354" sqref="B354"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1887,9 +1887,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
@@ -1899,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1910,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1921,7 +1919,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1932,7 +1930,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -3326,7 +3324,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="19.8">
+    <row r="142" spans="1:3" ht="19.5">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63707F87-22DD-4A90-ACFA-4015842BEEE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AFC21B-C4A3-450B-9CFE-7C013E805F3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="2565" windowWidth="28800" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="450" yWindow="1800" windowWidth="28800" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1941,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1952,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1963,7 +1963,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1974,7 +1974,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AFC21B-C4A3-450B-9CFE-7C013E805F3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993FBEAE-0164-494B-B3FA-9EAB15A2755E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="1800" windowWidth="28800" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="B324" sqref="B324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4954,7 +4954,7 @@
         <v>286</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
@@ -4965,7 +4965,7 @@
         <v>287</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="21">
@@ -4976,7 +4976,7 @@
         <v>288</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21">
@@ -4987,7 +4987,7 @@
         <v>289</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="21">
@@ -4998,7 +4998,7 @@
         <v>290</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="21">
@@ -5009,7 +5009,7 @@
         <v>291</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
@@ -5020,7 +5020,7 @@
         <v>292</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">
@@ -5031,7 +5031,7 @@
         <v>293</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
@@ -5042,7 +5042,7 @@
         <v>294</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="21">
@@ -5053,7 +5053,7 @@
         <v>295</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="21">
@@ -5064,7 +5064,7 @@
         <v>296</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="21">
@@ -5075,7 +5075,7 @@
         <v>297</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">
@@ -5086,7 +5086,7 @@
         <v>298</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="21">
@@ -5097,7 +5097,7 @@
         <v>299</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="21">
@@ -5130,7 +5130,7 @@
         <v>302</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="21">
@@ -5163,7 +5163,7 @@
         <v>305</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="21">
@@ -5174,7 +5174,7 @@
         <v>306</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="21">
@@ -5361,7 +5361,7 @@
         <v>323</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993FBEAE-0164-494B-B3FA-9EAB15A2755E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C671DB-F9D2-46EB-AFB7-B08FA08AAA25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="B324" sqref="B324"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="C318" sqref="C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5108,7 +5108,7 @@
         <v>300</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">
@@ -5141,7 +5141,7 @@
         <v>303</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="21">
@@ -5152,7 +5152,7 @@
         <v>304</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">
@@ -5185,7 +5185,7 @@
         <v>307</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="21">
@@ -5196,7 +5196,7 @@
         <v>308</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="21">
@@ -5218,7 +5218,7 @@
         <v>310</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C671DB-F9D2-46EB-AFB7-B08FA08AAA25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9952024-3EB8-4C45-82A4-A92A3520DD18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="450" yWindow="1800" windowWidth="28800" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="C318" sqref="C318"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5229,7 +5229,7 @@
         <v>311</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="21">
@@ -5240,7 +5240,7 @@
         <v>312</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9952024-3EB8-4C45-82A4-A92A3520DD18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AE0C78-4858-4D74-B808-1627DDBAACD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="1800" windowWidth="28800" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="C319" sqref="C319"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5207,7 +5207,7 @@
         <v>309</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="21">
@@ -5251,7 +5251,7 @@
         <v>313</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="21">
@@ -5262,7 +5262,7 @@
         <v>314</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="21">
@@ -5273,7 +5273,7 @@
         <v>315</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AE0C78-4858-4D74-B808-1627DDBAACD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBEB53C-F9A6-46BF-9269-33E6023A41A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="B330" sqref="B330"/>
+      <selection activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5306,7 +5306,7 @@
         <v>318</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="21">
@@ -5317,7 +5317,7 @@
         <v>319</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="21">
@@ -5328,7 +5328,7 @@
         <v>320</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBEB53C-F9A6-46BF-9269-33E6023A41A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1871077-61DC-4AAC-8437-A291F4A3FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="C329" sqref="C329"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4737,7 +4737,7 @@
         <v>266</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21">
@@ -4748,7 +4748,7 @@
         <v>267</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">
@@ -4781,7 +4781,7 @@
         <v>270</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="21">
@@ -4814,7 +4814,7 @@
         <v>273</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="21">
@@ -4825,7 +4825,7 @@
         <v>274</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="21">
@@ -4880,7 +4880,7 @@
         <v>279</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="21">
@@ -4913,7 +4913,7 @@
         <v>282</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="21">
@@ -5339,7 +5339,7 @@
         <v>321</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
@@ -5350,7 +5350,7 @@
         <v>322</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python coding\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1871077-61DC-4AAC-8437-A291F4A3FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF6D324-2880-4D8A-B4B7-8289E4897271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,18 +1854,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B285" sqref="B285"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:3" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="19.5">
+    <row r="142" spans="1:3" ht="19.8">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>231</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="21">
@@ -4355,7 +4355,7 @@
         <v>232</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="21">
@@ -4366,7 +4366,7 @@
         <v>233</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="21">
@@ -4388,7 +4388,7 @@
         <v>235</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="21">
@@ -4399,7 +4399,7 @@
         <v>236</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="21">
@@ -4421,7 +4421,7 @@
         <v>238</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1871077-61DC-4AAC-8437-A291F4A3FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FB84C6-AD5C-4B67-A52C-021620BCCE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B285" sqref="B285"/>
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4770,7 +4770,7 @@
         <v>269</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="21">
@@ -4792,7 +4792,7 @@
         <v>271</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">
@@ -4858,7 +4858,7 @@
         <v>277</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FB84C6-AD5C-4B67-A52C-021620BCCE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA2A0DB-F1ED-4938-893B-322B779912EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="5445" yWindow="45" windowWidth="28800" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="C285" sqref="C285"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="C473" sqref="C473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6821,7 +6821,7 @@
         <v>454</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
@@ -6832,7 +6832,7 @@
         <v>455</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
@@ -6843,7 +6843,7 @@
         <v>456</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
@@ -6854,7 +6854,7 @@
         <v>457</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="21">
@@ -6865,7 +6865,7 @@
         <v>458</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
@@ -6898,7 +6898,7 @@
         <v>461</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA2A0DB-F1ED-4938-893B-322B779912EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897C5FF1-78F1-4D10-BF88-F961137151BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="45" windowWidth="28800" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="5445" yWindow="45" windowWidth="28710" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="C473" sqref="C473"/>
+    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="B478" sqref="B478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6876,7 +6876,7 @@
         <v>459</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897C5FF1-78F1-4D10-BF88-F961137151BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6698E3DA-86E3-41DE-97A5-34DFBF159D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="45" windowWidth="28710" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
-      <selection activeCell="B478" sqref="B478"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2608,7 +2608,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="21">
@@ -2619,7 +2619,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="21">
@@ -3699,7 +3699,7 @@
         <v>172</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -3710,7 +3710,7 @@
         <v>173</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
@@ -3721,7 +3721,7 @@
         <v>174</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
@@ -6909,7 +6909,7 @@
         <v>462</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="21">
@@ -6920,7 +6920,7 @@
         <v>463</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6698E3DA-86E3-41DE-97A5-34DFBF159D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D314A830-3615-4860-94D1-BE75807143EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="5445" yWindow="45" windowWidth="28710" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3732,7 +3732,7 @@
         <v>175</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
@@ -3743,7 +3743,7 @@
         <v>176</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">
@@ -3754,7 +3754,7 @@
         <v>177</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
@@ -3765,7 +3765,7 @@
         <v>178</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21">
@@ -3776,7 +3776,7 @@
         <v>179</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
@@ -3787,7 +3787,7 @@
         <v>180</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
@@ -3798,7 +3798,7 @@
         <v>181</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D314A830-3615-4860-94D1-BE75807143EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C12ECE-24BD-476E-BC92-803F6A6F2978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5445" yWindow="45" windowWidth="28710" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>res</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3842,7 +3845,7 @@
         <v>185</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="21">
@@ -3853,7 +3856,7 @@
         <v>186</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="21">
@@ -3864,7 +3867,7 @@
         <v>187</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C12ECE-24BD-476E-BC92-803F6A6F2978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72FFD0F-77E2-4DAA-9B09-717F4DEE4354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="45" windowWidth="28710" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1857,13 +1857,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
@@ -3434,7 +3434,7 @@
         <v>147</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
@@ -6155,7 +6155,7 @@
         <v>394</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
@@ -6166,7 +6166,7 @@
         <v>395</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
@@ -6177,7 +6177,7 @@
         <v>396</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">
@@ -6188,7 +6188,7 @@
         <v>397</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">
@@ -6199,7 +6199,7 @@
         <v>398</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">
@@ -6210,7 +6210,7 @@
         <v>399</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">
@@ -6232,7 +6232,7 @@
         <v>273</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">
@@ -6254,7 +6254,7 @@
         <v>402</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72FFD0F-77E2-4DAA-9B09-717F4DEE4354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C0D6D-249D-4BFD-AB84-36FFCCA6D10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="4830" yWindow="2820" windowWidth="28710" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3067,7 +3067,7 @@
         <v>113</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
@@ -3834,7 +3834,7 @@
         <v>184</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
@@ -3889,7 +3889,7 @@
         <v>189</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="21">
@@ -3900,7 +3900,7 @@
         <v>190</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
@@ -3933,7 +3933,7 @@
         <v>193</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
@@ -3944,7 +3944,7 @@
         <v>194</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="21">
@@ -4032,7 +4032,7 @@
         <v>202</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
@@ -4043,7 +4043,7 @@
         <v>203</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="21">
@@ -4054,7 +4054,7 @@
         <v>204</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
@@ -4076,7 +4076,7 @@
         <v>206</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="21">
@@ -4317,7 +4317,7 @@
         <v>228</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">
@@ -6276,7 +6276,7 @@
         <v>404</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="21">
@@ -6298,7 +6298,7 @@
         <v>406</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">
@@ -6309,7 +6309,7 @@
         <v>407</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="21">
@@ -6342,7 +6342,7 @@
         <v>410</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="21">
@@ -6441,7 +6441,7 @@
         <v>419</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="21">
@@ -6496,7 +6496,7 @@
         <v>424</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="21">
@@ -6551,7 +6551,7 @@
         <v>429</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="21">
@@ -6595,7 +6595,7 @@
         <v>433</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="21">
@@ -6617,7 +6617,7 @@
         <v>435</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python coding\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72FFD0F-77E2-4DAA-9B09-717F4DEE4354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCA280D-BE69-4D2A-8539-8F4D92824504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1857,18 +1857,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:3" ht="24.6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="19.5">
+    <row r="142" spans="1:3" ht="19.8">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>216</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402C0D6D-249D-4BFD-AB84-36FFCCA6D10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C24475-FF3B-4446-BD17-949097BB0D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4830" yWindow="2820" windowWidth="28710" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="C234" sqref="C234"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3878,7 +3878,7 @@
         <v>188</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="21">
@@ -4207,7 +4207,7 @@
         <v>218</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C24475-FF3B-4446-BD17-949097BB0D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17851D7C-A576-4D09-93FD-092DC68C5AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4830" yWindow="2820" windowWidth="28710" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3812,7 +3812,7 @@
         <v>182</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="21">
@@ -3823,7 +3823,7 @@
         <v>183</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="21">
@@ -3911,7 +3911,7 @@
         <v>191</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="21">
@@ -3955,7 +3955,7 @@
         <v>195</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="21">
@@ -3966,7 +3966,7 @@
         <v>196</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="21">
@@ -3977,7 +3977,7 @@
         <v>197</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="21">
@@ -3988,7 +3988,7 @@
         <v>198</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="21">
@@ -3999,7 +3999,7 @@
         <v>199</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="21">
@@ -4010,7 +4010,7 @@
         <v>200</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="21">
@@ -4021,7 +4021,7 @@
         <v>201</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="21">
@@ -4065,7 +4065,7 @@
         <v>205</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17851D7C-A576-4D09-93FD-092DC68C5AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63267F2B-3E22-4B16-B22C-5303537D5D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="2820" windowWidth="28710" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="0" yWindow="1185" windowWidth="28710" windowHeight="11385" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4097,7 +4097,7 @@
         <v>208</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
@@ -4108,7 +4108,7 @@
         <v>209</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="21">
@@ -4119,7 +4119,7 @@
         <v>210</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="21">
@@ -4130,7 +4130,7 @@
         <v>211</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="21">
@@ -4141,7 +4141,7 @@
         <v>212</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
@@ -4152,7 +4152,7 @@
         <v>213</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="21">
@@ -4174,7 +4174,7 @@
         <v>215</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
@@ -4185,7 +4185,7 @@
         <v>216</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">
@@ -4196,7 +4196,7 @@
         <v>217</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
@@ -4218,7 +4218,7 @@
         <v>219</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
@@ -4229,7 +4229,7 @@
         <v>220</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
@@ -4240,7 +4240,7 @@
         <v>221</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="21">
@@ -4251,7 +4251,7 @@
         <v>222</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="21">
@@ -4262,7 +4262,7 @@
         <v>223</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="21">
@@ -4306,7 +4306,7 @@
         <v>227</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="21">
@@ -4328,7 +4328,7 @@
         <v>229</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python coding\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCA280D-BE69-4D2A-8539-8F4D92824504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AB9B6E-D643-4F86-BB4D-57D447F595D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -3889,7 +3889,7 @@
         <v>189</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="21">
@@ -3900,7 +3900,7 @@
         <v>190</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
@@ -3911,7 +3911,7 @@
         <v>191</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="21">
@@ -3933,7 +3933,7 @@
         <v>193</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
@@ -3944,7 +3944,7 @@
         <v>194</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="21">
@@ -3977,7 +3977,7 @@
         <v>197</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="21">
@@ -3999,7 +3999,7 @@
         <v>199</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="21">
@@ -4032,7 +4032,7 @@
         <v>202</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
@@ -4043,7 +4043,7 @@
         <v>203</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="21">
@@ -4054,7 +4054,7 @@
         <v>204</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
@@ -4141,7 +4141,7 @@
         <v>212</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
@@ -4174,7 +4174,7 @@
         <v>215</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
@@ -4218,7 +4218,7 @@
         <v>219</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
@@ -4229,7 +4229,7 @@
         <v>220</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
@@ -4317,7 +4317,7 @@
         <v>228</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python coding\DS-450-python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\python\DS-450-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AB9B6E-D643-4F86-BB4D-57D447F595D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B712E1E-5F00-4EB4-8281-99408E4C4646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="3090" yWindow="1290" windowWidth="28710" windowHeight="12885" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,9 +360,6 @@
     <t>Count triplet with sum smaller than a given value</t>
   </si>
   <si>
-    <t>merge 2 sorted arrays</t>
-  </si>
-  <si>
     <t>print all subarrays with 0 sum</t>
   </si>
   <si>
@@ -1426,6 +1423,9 @@
   </si>
   <si>
     <t>res</t>
+  </si>
+  <si>
+    <t>merge 2 sorted arrays in constant space</t>
   </si>
 </sst>
 </file>
@@ -1857,25 +1857,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="B462" sqref="B462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -1900,7 +1900,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1922,7 +1922,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1933,7 +1933,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1944,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1955,7 +1955,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1966,7 +1966,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1977,7 +1977,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -2098,7 +2098,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">
@@ -2109,7 +2109,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
@@ -2131,7 +2131,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21">
@@ -2142,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">
@@ -2186,7 +2186,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
@@ -2230,7 +2230,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21">
@@ -2241,7 +2241,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21">
@@ -2263,7 +2263,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21">
@@ -2309,7 +2309,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2320,7 +2320,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2342,7 +2342,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
@@ -2353,7 +2353,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">
@@ -2364,7 +2364,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21">
@@ -2386,7 +2386,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
@@ -2424,7 +2424,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2435,7 +2435,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2446,7 +2446,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2457,7 +2457,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
@@ -2468,7 +2468,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
@@ -2611,7 +2611,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="21">
@@ -2622,7 +2622,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="21">
@@ -2710,7 +2710,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="21">
@@ -2743,7 +2743,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21">
@@ -2798,7 +2798,7 @@
         <v>88</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="21">
@@ -2809,7 +2809,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21">
@@ -2968,7 +2968,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
@@ -2979,7 +2979,7 @@
         <v>105</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
@@ -2990,7 +2990,7 @@
         <v>106</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="21">
@@ -3023,7 +3023,7 @@
         <v>109</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21">
@@ -3034,7 +3034,7 @@
         <v>110</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="21">
@@ -3042,10 +3042,10 @@
         <v>97</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>111</v>
+        <v>466</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">
@@ -3053,7 +3053,7 @@
         <v>97</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>4</v>
@@ -3064,7 +3064,7 @@
         <v>97</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>4</v>
@@ -3075,10 +3075,10 @@
         <v>97</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21">
@@ -3086,7 +3086,7 @@
         <v>97</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>4</v>
@@ -3097,7 +3097,7 @@
         <v>97</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>4</v>
@@ -3108,7 +3108,7 @@
         <v>97</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>4</v>
@@ -3119,7 +3119,7 @@
         <v>97</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>4</v>
@@ -3130,7 +3130,7 @@
         <v>97</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>4</v>
@@ -3141,7 +3141,7 @@
         <v>97</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>4</v>
@@ -3152,7 +3152,7 @@
         <v>97</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>4</v>
@@ -3163,7 +3163,7 @@
         <v>97</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>4</v>
@@ -3174,7 +3174,7 @@
         <v>97</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>4</v>
@@ -3185,7 +3185,7 @@
         <v>97</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>4</v>
@@ -3196,7 +3196,7 @@
         <v>97</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>4</v>
@@ -3207,7 +3207,7 @@
         <v>97</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>4</v>
@@ -3218,7 +3218,7 @@
         <v>97</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>4</v>
@@ -3229,7 +3229,7 @@
         <v>97</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>4</v>
@@ -3240,7 +3240,7 @@
         <v>97</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>4</v>
@@ -3251,7 +3251,7 @@
         <v>97</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>4</v>
@@ -3262,7 +3262,7 @@
         <v>97</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>4</v>
@@ -3273,10 +3273,10 @@
         <v>97</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="21">
@@ -3284,7 +3284,7 @@
         <v>97</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>4</v>
@@ -3296,10 +3296,10 @@
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>4</v>
@@ -3307,142 +3307,142 @@
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B141" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="19.5">
+      <c r="A142" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B142" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="19.8">
-      <c r="A142" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="C142" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>4</v>
@@ -3450,153 +3450,153 @@
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>4</v>
@@ -3604,21 +3604,21 @@
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>4</v>
@@ -3626,21 +3626,21 @@
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>4</v>
@@ -3648,43 +3648,43 @@
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="21">
       <c r="A174" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>4</v>
@@ -3696,120 +3696,120 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="C177" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>4</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>4</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>4</v>
@@ -3839,43 +3839,43 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>4</v>
@@ -3883,43 +3883,43 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>4</v>
@@ -3927,32 +3927,32 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>4</v>
@@ -3960,10 +3960,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>4</v>
@@ -3971,21 +3971,21 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>4</v>
@@ -3993,21 +3993,21 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>4</v>
@@ -4015,10 +4015,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>4</v>
@@ -4026,43 +4026,43 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>4</v>
@@ -4070,10 +4070,10 @@
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>4</v>
@@ -4091,10 +4091,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>4</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>4</v>
@@ -4113,10 +4113,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>4</v>
@@ -4124,10 +4124,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>4</v>
@@ -4135,21 +4135,21 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>4</v>
@@ -4157,10 +4157,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>4</v>
@@ -4168,32 +4168,32 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>4</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>4</v>
@@ -4212,32 +4212,32 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>4</v>
@@ -4245,10 +4245,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>4</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>4</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>4</v>
@@ -4278,10 +4278,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>4</v>
@@ -4289,10 +4289,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>4</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>4</v>
@@ -4311,21 +4311,21 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>4</v>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>4</v>
@@ -4352,10 +4352,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>4</v>
@@ -4363,10 +4363,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>4</v>
@@ -4374,10 +4374,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>4</v>
@@ -4385,10 +4385,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>4</v>
@@ -4396,10 +4396,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>4</v>
@@ -4407,10 +4407,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>4</v>
@@ -4418,10 +4418,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>4</v>
@@ -4429,10 +4429,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>4</v>
@@ -4440,10 +4440,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>4</v>
@@ -4451,10 +4451,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>4</v>
@@ -4462,10 +4462,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>4</v>
@@ -4473,10 +4473,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>4</v>
@@ -4484,10 +4484,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>4</v>
@@ -4495,10 +4495,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>4</v>
@@ -4506,10 +4506,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>4</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>4</v>
@@ -4528,10 +4528,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>4</v>
@@ -4539,10 +4539,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>4</v>
@@ -4550,10 +4550,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>4</v>
@@ -4561,10 +4561,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>4</v>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>4</v>
@@ -4583,10 +4583,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>4</v>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>4</v>
@@ -4605,10 +4605,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>4</v>
@@ -4616,10 +4616,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>4</v>
@@ -4627,10 +4627,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>4</v>
@@ -4638,10 +4638,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>4</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
@@ -4660,10 +4660,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>4</v>
@@ -4671,10 +4671,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>4</v>
@@ -4682,10 +4682,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>4</v>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>4</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>87</v>
@@ -4715,10 +4715,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>4</v>
@@ -4734,32 +4734,32 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>266</v>
-      </c>
       <c r="C275" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>4</v>
@@ -4767,76 +4767,76 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>4</v>
@@ -4844,101 +4844,101 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="21">
@@ -4951,175 +4951,175 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B296" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="C296" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>4</v>
@@ -5127,164 +5127,164 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>4</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>4</v>
@@ -5303,68 +5303,68 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="21">
@@ -5377,200 +5377,200 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B336" s="6" t="s">
-        <v>325</v>
-      </c>
       <c r="C336" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="21">
@@ -5583,186 +5583,186 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B356" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B356" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="C356" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>4</v>
@@ -5770,186 +5770,186 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>4</v>
@@ -5957,10 +5957,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
@@ -5968,87 +5968,87 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6056,13 +6056,13 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="21">
@@ -6075,21 +6075,21 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B402" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B402" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="C402" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6097,10 +6097,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>89</v>
@@ -6119,10 +6119,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6149,186 +6149,186 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B410" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B410" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="C410" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6336,10 +6336,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6347,21 +6347,21 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6369,10 +6369,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6380,10 +6380,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6391,10 +6391,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6402,10 +6402,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6413,43 +6413,43 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6457,10 +6457,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6468,10 +6468,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6479,10 +6479,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6490,21 +6490,21 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6512,21 +6512,21 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6534,10 +6534,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6545,10 +6545,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6567,21 +6567,21 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6589,10 +6589,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6600,10 +6600,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6611,10 +6611,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6633,10 +6633,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6644,10 +6644,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6655,10 +6655,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6666,10 +6666,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6677,10 +6677,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6688,10 +6688,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6699,10 +6699,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6710,32 +6710,32 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6743,10 +6743,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6754,10 +6754,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6765,10 +6765,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -6776,10 +6776,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -6787,10 +6787,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -6798,10 +6798,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -6818,76 +6818,76 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B472" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B472" s="6" t="s">
-        <v>454</v>
-      </c>
       <c r="C472" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -6895,35 +6895,35 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -7027,7 +7027,7 @@
     <hyperlink ref="B110" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
     <hyperlink ref="B111" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
     <hyperlink ref="B113" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B114" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B114" r:id="rId100" display="merge 2 sorted arrays" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
     <hyperlink ref="B115" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
     <hyperlink ref="B116" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
     <hyperlink ref="B117" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
